--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -361,9 +361,6 @@
   </si>
   <si>
     <t>Thay diode chống quá áp</t>
-  </si>
-  <si>
-    <t>NGS</t>
   </si>
   <si>
     <t>Nâng cấp FW cho thiết bị</t>
@@ -831,6 +828,30 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -852,34 +873,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1220,43 +1217,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -1301,58 +1298,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1377,24 +1374,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1418,13 +1415,13 @@
       </c>
       <c r="H6" s="58"/>
       <c r="I6" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
@@ -1442,7 +1439,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1475,7 +1472,7 @@
         <v>92</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>101</v>
@@ -1496,12 +1493,12 @@
         <v>18</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1530,7 +1527,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1556,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1588,7 +1585,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1617,7 +1614,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +1643,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1677,7 +1674,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1706,7 +1703,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1732,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="68"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1761,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="68"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2998,10 +2995,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="83" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3030,8 +3027,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3057,8 +3054,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4345,6 +4342,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4355,16 +4362,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4375,8 +4372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J13"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4407,43 +4404,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -4488,58 +4485,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4564,24 +4561,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4641,7 +4638,7 @@
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4706,7 +4703,7 @@
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4769,7 +4766,7 @@
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4828,7 +4825,7 @@
       </c>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4887,7 +4884,7 @@
       </c>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4946,7 +4943,7 @@
       </c>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5009,7 +5006,7 @@
       </c>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5074,7 +5071,7 @@
       </c>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5103,7 +5100,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5132,7 +5129,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="68"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5161,7 +5158,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="68"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6395,10 +6392,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="83" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6427,8 +6424,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6454,8 +6451,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7742,6 +7739,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7752,16 +7759,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7772,8 +7769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7804,43 +7801,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -7885,58 +7882,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7961,24 +7958,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8030,7 +8027,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8061,7 +8058,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8090,7 +8087,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8119,7 +8116,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8148,7 +8145,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8177,7 +8174,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8206,7 +8203,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8237,7 +8234,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8266,7 +8263,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8295,7 +8292,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="68"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8324,7 +8321,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="68"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9558,10 +9555,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="83" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9590,8 +9587,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9617,8 +9614,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10905,6 +10902,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10915,16 +10922,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10936,7 +10933,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10967,43 +10964,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11048,58 +11045,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -11124,24 +11121,24 @@
       <c r="I5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11175,7 +11172,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="68"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11206,7 +11203,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="68"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11235,7 +11232,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="68"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11264,7 +11261,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
       <c r="U9" s="68"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11293,7 +11290,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
       <c r="U10" s="68"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11322,7 +11319,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
       <c r="U11" s="68"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11351,7 +11348,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
       <c r="U12" s="68"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11382,7 +11379,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
       <c r="U13" s="68"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11411,7 +11408,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
       <c r="U14" s="68"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11440,7 +11437,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="68"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11469,7 +11466,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="68"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12703,10 +12700,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="83" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>1</v>
       </c>
@@ -12735,8 +12732,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12762,8 +12759,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14050,6 +14047,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14060,16 +14067,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14080,8 +14077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14112,43 +14109,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="70"/>
@@ -14193,58 +14190,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -14269,24 +14266,24 @@
       <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -14338,7 +14335,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -14397,7 +14394,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14426,7 +14423,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14455,7 +14452,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -14484,7 +14481,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -14513,7 +14510,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -14542,7 +14539,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -14573,7 +14570,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -14602,7 +14599,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -14631,7 +14628,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -14660,7 +14657,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15894,10 +15891,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="83" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15926,8 +15923,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -15953,8 +15950,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -17241,6 +17238,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -17251,16 +17258,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17271,8 +17268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17303,43 +17300,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -17384,58 +17381,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="95" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="87" t="s">
+      <c r="W4" s="85" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -17460,50 +17457,72 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C6" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="51">
+        <v>862549040682447</v>
+      </c>
       <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
+      <c r="I6" s="65" t="s">
+        <v>107</v>
+      </c>
       <c r="J6" s="52"/>
       <c r="K6" s="55"/>
       <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>106</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -17514,27 +17533,55 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="B7" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C7" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="51">
+        <v>862549040693148</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>101</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="M7" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="O7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="81"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17543,27 +17590,61 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="3"/>
+      <c r="B8" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C8" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="51">
+        <v>868926033918878</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="81"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17572,27 +17653,61 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="3"/>
+      <c r="B9" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C9" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="51">
+        <v>868926033949360</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="81"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -17601,27 +17716,61 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="B10" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C10" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="51">
+        <v>868926033930378</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="3"/>
+      <c r="O10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="81"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17630,27 +17779,57 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="B11" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C11" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="51">
+        <v>866050031765470</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="3"/>
+      <c r="O11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="81"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17659,27 +17838,57 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="3"/>
+      <c r="B12" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C12" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868926033984946</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="80" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -17690,27 +17899,57 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="B13" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C13" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868926033919801</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="N13" s="54"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="3"/>
+      <c r="O13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="81"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17719,27 +17958,61 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="3"/>
+      <c r="B14" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C14" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868926033923027</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="54"/>
+      <c r="O14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="81"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17748,27 +18021,61 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="B15" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C15" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="51">
+        <v>868926033920254</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>87</v>
+      </c>
       <c r="N15" s="54"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="3"/>
+      <c r="O15" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="81"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17777,27 +18084,53 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="65"/>
+      <c r="B16" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C16" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="51">
+        <v>866762024328591</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="65" t="s">
+        <v>103</v>
+      </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="55" t="s">
+        <v>102</v>
+      </c>
       <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="55"/>
+      <c r="M16" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="82"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17806,23 +18139,49 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="51">
+        <v>868183033792016</v>
+      </c>
       <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="G17" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="I17" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="N17" s="54"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="55"/>
+      <c r="O17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="29"/>
       <c r="U17" s="15"/>
@@ -17833,23 +18192,51 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="55"/>
+      <c r="B18" s="49">
+        <v>44158</v>
+      </c>
+      <c r="C18" s="49">
+        <v>44161</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="51">
+        <v>861057040210863</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="55"/>
+      <c r="M18" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>23</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="29"/>
       <c r="U18" s="15"/>
@@ -17916,7 +18303,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17948,7 +18335,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17980,7 +18367,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18225,7 +18612,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18289,7 +18676,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18385,7 +18772,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18449,7 +18836,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18684,7 +19071,7 @@
       </c>
       <c r="W45" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102E")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18716,7 +19103,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18780,7 +19167,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -18908,7 +19295,7 @@
       </c>
       <c r="W52" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19031,10 +19418,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="83" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="83">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -19063,8 +19450,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="84"/>
-      <c r="W57" s="84"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -19090,8 +19477,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="85"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -20378,6 +20765,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -20388,16 +20785,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
